--- a/reports/tables/table_two.xlsx
+++ b/reports/tables/table_two.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Clusters</t>
   </si>
   <si>
+    <t>Posts (#)</t>
+  </si>
+  <si>
+    <t>Comments (#)</t>
+  </si>
+  <si>
     <t>Topic Representation</t>
   </si>
   <si>
@@ -28,40 +34,40 @@
     <t>Group</t>
   </si>
   <si>
-    <t>[3, 7, 9, 14, 30, 37, 40, 45, 48, 55, 62, 63, 69, 71, 85, 86, 94, 97]</t>
-  </si>
-  <si>
-    <t>[68, 89, 91, 96, 98, 99]</t>
-  </si>
-  <si>
-    <t>[11, 13, 16, 25, 44, 46, 53, 54, 56, 60, 64, 77, 83]</t>
-  </si>
-  <si>
-    <t>[0, 1, 4, 5, 6, 8, 12, 15, 17, 18, 19, 20, 22, 23, 26, 27, 28, 31, 35, 41, 49, 51, 52, 57, 66, 72, 76, 80, 82, 87, 90]</t>
-  </si>
-  <si>
-    <t>[2, 10, 29, 32, 36, 38, 39, 42, 43, 47, 58, 59, 61, 65, 74, 75, 79, 84, 88, 92, 93, 95]</t>
-  </si>
-  <si>
-    <t>[21, 24, 33, 34, 50, 67, 70, 73, 78, 81]</t>
-  </si>
-  <si>
-    <t>risk_cholesterol_people_heart_effects_study_patients_ivermectin</t>
-  </si>
-  <si>
-    <t>rice_yeast_red_lovastatin_ryr_fda_monacolin_supplements_supplement</t>
-  </si>
-  <si>
-    <t>cholesterol_risk_ldl_disease_mortality_study_ldlc_heart_studies</t>
-  </si>
-  <si>
-    <t>cholesterol_ldl_high_im_diet_keto_doctor_blood_just</t>
-  </si>
-  <si>
-    <t>lipitor_im_taking_crestor_effects_doctor_just_pain_daily</t>
-  </si>
-  <si>
-    <t>drug_drugs_lipitor_generic_people_like_companies_dont_just_cost</t>
+    <t>4, 8, 10, 15, 31, 38, 41, 46, 49, 56, 63, 64, 70, 72, 86, 87, 95, 98</t>
+  </si>
+  <si>
+    <t>69, 90, 92, 97, 99, 100</t>
+  </si>
+  <si>
+    <t>12, 14, 17, 26, 45, 47, 54, 55, 57, 61, 65, 78, 84</t>
+  </si>
+  <si>
+    <t>1, 2, 5, 6, 7, 9, 13, 16, 18, 19, 20, 21, 23, 24, 27, 28, 29, 32, 36, 42, 50, 52, 53, 58, 67, 73, 77, 81, 83, 88, 91</t>
+  </si>
+  <si>
+    <t>3, 11, 30, 33, 37, 39, 40, 43, 44, 48, 59, 60, 62, 66, 75, 76, 80, 85, 89, 93, 94, 96</t>
+  </si>
+  <si>
+    <t>22, 25, 34, 35, 51, 68, 71, 74, 79, 82</t>
+  </si>
+  <si>
+    <t>"cholesterol", "effects", "heart", "ivermectin", "patients", "people", "risk", "statin", "statins", "study"</t>
+  </si>
+  <si>
+    <t>"fda", "lovastatin", "monacolin", "red", "rice", "ryr", "statin", "supplement", "supplements", "yeast"</t>
+  </si>
+  <si>
+    <t>"cholesterol", "disease", "heart", "ldl", "ldlc", "mortality", "risk", "statin", "studies", "study"</t>
+  </si>
+  <si>
+    <t>"blood", "cholesterol", "diet", "doctor", "high", "im", "just", "keto", "ldl", "statin"</t>
+  </si>
+  <si>
+    <t>"crestor", "daily", "doctor", "effects", "im", "just", "lipitor", "pain", "statin", "taking"</t>
+  </si>
+  <si>
+    <t>"companies", "cost", "dont", "drug", "drugs", "generic", "just", "like", "lipitor", "people"</t>
   </si>
 </sst>
 </file>
@@ -419,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -438,71 +444,113 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>1775</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>1271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>691</v>
+      </c>
+      <c r="D5">
+        <v>3497</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>1768</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>837</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
